--- a/2023-24 k/Price list with margin.xlsx
+++ b/2023-24 k/Price list with margin.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -220,8 +220,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -395,48 +395,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -503,12 +461,59 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -587,6 +592,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -621,6 +627,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -796,14 +803,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:M65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.42578125" customWidth="1"/>
     <col min="2" max="2" width="42.140625" customWidth="1"/>
@@ -819,2133 +826,2138 @@
     <col min="13" max="13" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" ht="15.75">
+    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="6" t="s">
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="L9" s="8"/>
-      <c r="M9" s="9" t="s">
+      <c r="L9" s="30"/>
+      <c r="M9" s="31" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="5" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="37"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="K10" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="L10" s="9" t="s">
+      <c r="L10" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="M10" s="13"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="16"/>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="17">
+      <c r="M10" s="32"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="37"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="37"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="38"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="33"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>1</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="4">
         <v>2</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="4">
         <v>3</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="4">
         <v>4</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="5">
         <v>5</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="6">
         <v>6</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="6">
         <v>7</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="6">
         <v>8</v>
       </c>
-      <c r="I14" s="20">
+      <c r="I14" s="6">
         <v>9</v>
       </c>
-      <c r="J14" s="20">
+      <c r="J14" s="6">
         <v>10</v>
       </c>
-      <c r="K14" s="21">
+      <c r="K14" s="7">
         <v>11</v>
       </c>
-      <c r="L14" s="21">
+      <c r="L14" s="7">
         <v>12</v>
       </c>
-      <c r="M14" s="20">
+      <c r="M14" s="6">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="17">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>1</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="24" t="s">
+      <c r="C15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="25">
+      <c r="E15" s="11">
         <v>3920</v>
       </c>
-      <c r="F15" s="23">
-        <v>28</v>
-      </c>
-      <c r="G15" s="23">
-        <v>60</v>
-      </c>
-      <c r="H15" s="20">
+      <c r="F15" s="9">
+        <v>28</v>
+      </c>
+      <c r="G15" s="9">
+        <v>60</v>
+      </c>
+      <c r="H15" s="6">
         <v>250</v>
       </c>
-      <c r="I15" s="26">
+      <c r="I15" s="12">
         <f>SUM(F15:H15)</f>
         <v>338</v>
       </c>
-      <c r="J15" s="26">
+      <c r="J15" s="12">
         <f>E15-I15</f>
         <v>3582</v>
       </c>
-      <c r="K15" s="20">
+      <c r="K15" s="6">
         <v>250</v>
       </c>
-      <c r="L15" s="26">
+      <c r="L15" s="12">
         <f>E15-K15</f>
         <v>3670</v>
       </c>
-      <c r="M15" s="20">
+      <c r="M15" s="6">
         <v>1670</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="17">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>2</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="24" t="s">
+      <c r="C16" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="25">
+      <c r="E16" s="11">
         <v>3920</v>
       </c>
-      <c r="F16" s="23">
-        <v>28</v>
-      </c>
-      <c r="G16" s="23">
-        <v>60</v>
-      </c>
-      <c r="H16" s="20">
+      <c r="F16" s="9">
+        <v>28</v>
+      </c>
+      <c r="G16" s="9">
+        <v>60</v>
+      </c>
+      <c r="H16" s="6">
         <v>250</v>
       </c>
-      <c r="I16" s="26">
+      <c r="I16" s="12">
         <f t="shared" ref="I16:I54" si="0">SUM(F16:H16)</f>
         <v>338</v>
       </c>
-      <c r="J16" s="26">
+      <c r="J16" s="12">
         <f t="shared" ref="J16:J54" si="1">E16-I16</f>
         <v>3582</v>
       </c>
-      <c r="K16" s="20">
+      <c r="K16" s="6">
         <v>250</v>
       </c>
-      <c r="L16" s="26">
+      <c r="L16" s="12">
         <f t="shared" ref="L16:L54" si="2">E16-K16</f>
         <v>3670</v>
       </c>
-      <c r="M16" s="20">
+      <c r="M16" s="6">
         <v>1470</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="17">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>3</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="23" t="s">
+      <c r="C17" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="25">
+      <c r="E17" s="11">
         <v>4764</v>
       </c>
-      <c r="F17" s="23">
-        <v>28</v>
-      </c>
-      <c r="G17" s="23">
-        <v>60</v>
-      </c>
-      <c r="H17" s="20">
-        <v>300</v>
-      </c>
-      <c r="I17" s="26">
-        <f t="shared" si="0"/>
-        <v>388</v>
-      </c>
-      <c r="J17" s="26">
+      <c r="F17" s="9">
+        <v>28</v>
+      </c>
+      <c r="G17" s="9">
+        <v>60</v>
+      </c>
+      <c r="H17" s="6">
+        <v>300</v>
+      </c>
+      <c r="I17" s="12">
+        <f t="shared" si="0"/>
+        <v>388</v>
+      </c>
+      <c r="J17" s="12">
         <f t="shared" si="1"/>
         <v>4376</v>
       </c>
-      <c r="K17" s="20">
-        <v>300</v>
-      </c>
-      <c r="L17" s="26">
+      <c r="K17" s="6">
+        <v>300</v>
+      </c>
+      <c r="L17" s="12">
         <f t="shared" si="2"/>
         <v>4464</v>
       </c>
-      <c r="M17" s="20">
+      <c r="M17" s="6">
         <v>2364</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="17">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>4</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="24" t="s">
+      <c r="C18" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="25">
+      <c r="E18" s="11">
         <v>6886</v>
       </c>
-      <c r="F18" s="23">
-        <v>28</v>
-      </c>
-      <c r="G18" s="23">
-        <v>60</v>
-      </c>
-      <c r="H18" s="20">
-        <v>300</v>
-      </c>
-      <c r="I18" s="26">
-        <f t="shared" si="0"/>
-        <v>388</v>
-      </c>
-      <c r="J18" s="26">
+      <c r="F18" s="9">
+        <v>28</v>
+      </c>
+      <c r="G18" s="9">
+        <v>60</v>
+      </c>
+      <c r="H18" s="6">
+        <v>300</v>
+      </c>
+      <c r="I18" s="12">
+        <f t="shared" si="0"/>
+        <v>388</v>
+      </c>
+      <c r="J18" s="12">
         <f t="shared" si="1"/>
         <v>6498</v>
       </c>
-      <c r="K18" s="20">
-        <v>300</v>
-      </c>
-      <c r="L18" s="26">
+      <c r="K18" s="6">
+        <v>300</v>
+      </c>
+      <c r="L18" s="12">
         <f t="shared" si="2"/>
         <v>6586</v>
       </c>
-      <c r="M18" s="20">
+      <c r="M18" s="6">
         <v>2886</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="17">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <v>5</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="24" t="s">
+      <c r="C19" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="25">
+      <c r="E19" s="11">
         <v>6886</v>
       </c>
-      <c r="F19" s="23">
-        <v>28</v>
-      </c>
-      <c r="G19" s="23">
-        <v>60</v>
-      </c>
-      <c r="H19" s="20">
-        <v>300</v>
-      </c>
-      <c r="I19" s="26">
-        <f t="shared" si="0"/>
-        <v>388</v>
-      </c>
-      <c r="J19" s="26">
+      <c r="F19" s="9">
+        <v>28</v>
+      </c>
+      <c r="G19" s="9">
+        <v>60</v>
+      </c>
+      <c r="H19" s="6">
+        <v>300</v>
+      </c>
+      <c r="I19" s="12">
+        <f t="shared" si="0"/>
+        <v>388</v>
+      </c>
+      <c r="J19" s="12">
         <f t="shared" si="1"/>
         <v>6498</v>
       </c>
-      <c r="K19" s="20">
-        <v>300</v>
-      </c>
-      <c r="L19" s="26">
+      <c r="K19" s="6">
+        <v>300</v>
+      </c>
+      <c r="L19" s="12">
         <f t="shared" si="2"/>
         <v>6586</v>
       </c>
-      <c r="M19" s="20">
+      <c r="M19" s="6">
         <v>2886</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="17">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
         <v>6</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="23" t="s">
+      <c r="C20" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="25">
+      <c r="E20" s="11">
         <v>12703</v>
       </c>
-      <c r="F20" s="23">
-        <v>28</v>
-      </c>
-      <c r="G20" s="23">
-        <v>60</v>
-      </c>
-      <c r="H20" s="20">
-        <v>300</v>
-      </c>
-      <c r="I20" s="26">
-        <f t="shared" si="0"/>
-        <v>388</v>
-      </c>
-      <c r="J20" s="26">
+      <c r="F20" s="9">
+        <v>28</v>
+      </c>
+      <c r="G20" s="9">
+        <v>60</v>
+      </c>
+      <c r="H20" s="6">
+        <v>300</v>
+      </c>
+      <c r="I20" s="12">
+        <f t="shared" si="0"/>
+        <v>388</v>
+      </c>
+      <c r="J20" s="12">
         <f t="shared" si="1"/>
         <v>12315</v>
       </c>
-      <c r="K20" s="20">
-        <v>300</v>
-      </c>
-      <c r="L20" s="26">
+      <c r="K20" s="6">
+        <v>300</v>
+      </c>
+      <c r="L20" s="12">
         <f t="shared" si="2"/>
         <v>12403</v>
       </c>
-      <c r="M20" s="20">
+      <c r="M20" s="6">
         <v>6053</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="17">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
         <v>7</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="23" t="s">
+      <c r="C21" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="25">
+      <c r="E21" s="11">
         <v>12703</v>
       </c>
-      <c r="F21" s="23">
-        <v>28</v>
-      </c>
-      <c r="G21" s="23">
-        <v>60</v>
-      </c>
-      <c r="H21" s="20">
-        <v>300</v>
-      </c>
-      <c r="I21" s="26">
-        <f t="shared" si="0"/>
-        <v>388</v>
-      </c>
-      <c r="J21" s="26">
+      <c r="F21" s="9">
+        <v>28</v>
+      </c>
+      <c r="G21" s="9">
+        <v>60</v>
+      </c>
+      <c r="H21" s="6">
+        <v>300</v>
+      </c>
+      <c r="I21" s="12">
+        <f t="shared" si="0"/>
+        <v>388</v>
+      </c>
+      <c r="J21" s="12">
         <f t="shared" si="1"/>
         <v>12315</v>
       </c>
-      <c r="K21" s="20">
-        <v>300</v>
-      </c>
-      <c r="L21" s="26">
+      <c r="K21" s="6">
+        <v>300</v>
+      </c>
+      <c r="L21" s="12">
         <f t="shared" si="2"/>
         <v>12403</v>
       </c>
-      <c r="M21" s="20">
+      <c r="M21" s="6">
         <v>6053</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="17">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
         <v>8</v>
       </c>
-      <c r="B22" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="24" t="s">
+      <c r="B22" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="25">
+      <c r="E22" s="11">
         <v>12610</v>
       </c>
-      <c r="F22" s="23">
-        <v>28</v>
-      </c>
-      <c r="G22" s="23">
-        <v>60</v>
-      </c>
-      <c r="H22" s="20">
-        <v>300</v>
-      </c>
-      <c r="I22" s="26">
-        <f t="shared" si="0"/>
-        <v>388</v>
-      </c>
-      <c r="J22" s="26">
+      <c r="F22" s="9">
+        <v>28</v>
+      </c>
+      <c r="G22" s="9">
+        <v>60</v>
+      </c>
+      <c r="H22" s="6">
+        <v>300</v>
+      </c>
+      <c r="I22" s="12">
+        <f t="shared" si="0"/>
+        <v>388</v>
+      </c>
+      <c r="J22" s="12">
         <f t="shared" si="1"/>
         <v>12222</v>
       </c>
-      <c r="K22" s="20">
-        <v>300</v>
-      </c>
-      <c r="L22" s="26">
+      <c r="K22" s="6">
+        <v>300</v>
+      </c>
+      <c r="L22" s="12">
         <f t="shared" si="2"/>
         <v>12310</v>
       </c>
-      <c r="M22" s="20">
+      <c r="M22" s="6">
         <v>3610</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="17">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
         <v>9</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="24" t="s">
+      <c r="C23" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="25">
+      <c r="E23" s="11">
         <v>12610</v>
       </c>
-      <c r="F23" s="23">
-        <v>28</v>
-      </c>
-      <c r="G23" s="23">
-        <v>60</v>
-      </c>
-      <c r="H23" s="20">
-        <v>300</v>
-      </c>
-      <c r="I23" s="26">
-        <f t="shared" si="0"/>
-        <v>388</v>
-      </c>
-      <c r="J23" s="26">
+      <c r="F23" s="9">
+        <v>28</v>
+      </c>
+      <c r="G23" s="9">
+        <v>60</v>
+      </c>
+      <c r="H23" s="6">
+        <v>300</v>
+      </c>
+      <c r="I23" s="12">
+        <f t="shared" si="0"/>
+        <v>388</v>
+      </c>
+      <c r="J23" s="12">
         <f t="shared" si="1"/>
         <v>12222</v>
       </c>
-      <c r="K23" s="20">
-        <v>300</v>
-      </c>
-      <c r="L23" s="26">
+      <c r="K23" s="6">
+        <v>300</v>
+      </c>
+      <c r="L23" s="12">
         <f t="shared" si="2"/>
         <v>12310</v>
       </c>
-      <c r="M23" s="20">
+      <c r="M23" s="6">
         <v>3610</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="17">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
         <v>10</v>
       </c>
-      <c r="B24" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="24" t="s">
+      <c r="B24" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="25">
+      <c r="E24" s="11">
         <v>12650</v>
       </c>
-      <c r="F24" s="23">
-        <v>28</v>
-      </c>
-      <c r="G24" s="23">
-        <v>60</v>
-      </c>
-      <c r="H24" s="20">
-        <v>300</v>
-      </c>
-      <c r="I24" s="26">
-        <f t="shared" si="0"/>
-        <v>388</v>
-      </c>
-      <c r="J24" s="26">
+      <c r="F24" s="9">
+        <v>28</v>
+      </c>
+      <c r="G24" s="9">
+        <v>60</v>
+      </c>
+      <c r="H24" s="6">
+        <v>300</v>
+      </c>
+      <c r="I24" s="12">
+        <f t="shared" si="0"/>
+        <v>388</v>
+      </c>
+      <c r="J24" s="12">
         <f t="shared" si="1"/>
         <v>12262</v>
       </c>
-      <c r="K24" s="20">
-        <v>300</v>
-      </c>
-      <c r="L24" s="26">
+      <c r="K24" s="6">
+        <v>300</v>
+      </c>
+      <c r="L24" s="12">
         <f t="shared" si="2"/>
         <v>12350</v>
       </c>
-      <c r="M24" s="20">
+      <c r="M24" s="6">
         <v>3650</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="17">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
         <v>11</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="24" t="s">
+      <c r="C25" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="25">
+      <c r="E25" s="11">
         <v>12650</v>
       </c>
-      <c r="F25" s="23">
-        <v>28</v>
-      </c>
-      <c r="G25" s="23">
-        <v>60</v>
-      </c>
-      <c r="H25" s="20">
-        <v>300</v>
-      </c>
-      <c r="I25" s="26">
-        <f t="shared" si="0"/>
-        <v>388</v>
-      </c>
-      <c r="J25" s="26">
+      <c r="F25" s="9">
+        <v>28</v>
+      </c>
+      <c r="G25" s="9">
+        <v>60</v>
+      </c>
+      <c r="H25" s="6">
+        <v>300</v>
+      </c>
+      <c r="I25" s="12">
+        <f t="shared" si="0"/>
+        <v>388</v>
+      </c>
+      <c r="J25" s="12">
         <f t="shared" si="1"/>
         <v>12262</v>
       </c>
-      <c r="K25" s="20">
-        <v>300</v>
-      </c>
-      <c r="L25" s="26">
+      <c r="K25" s="6">
+        <v>300</v>
+      </c>
+      <c r="L25" s="12">
         <f t="shared" si="2"/>
         <v>12350</v>
       </c>
-      <c r="M25" s="20">
+      <c r="M25" s="6">
         <v>3650</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="17">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
         <v>12</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="24" t="s">
+      <c r="C26" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="25">
+      <c r="E26" s="11">
         <v>11797</v>
       </c>
-      <c r="F26" s="23">
-        <v>28</v>
-      </c>
-      <c r="G26" s="23">
-        <v>60</v>
-      </c>
-      <c r="H26" s="20">
-        <v>300</v>
-      </c>
-      <c r="I26" s="26">
-        <f t="shared" si="0"/>
-        <v>388</v>
-      </c>
-      <c r="J26" s="26">
+      <c r="F26" s="9">
+        <v>28</v>
+      </c>
+      <c r="G26" s="9">
+        <v>60</v>
+      </c>
+      <c r="H26" s="6">
+        <v>300</v>
+      </c>
+      <c r="I26" s="12">
+        <f t="shared" si="0"/>
+        <v>388</v>
+      </c>
+      <c r="J26" s="12">
         <f t="shared" si="1"/>
         <v>11409</v>
       </c>
-      <c r="K26" s="20">
-        <v>300</v>
-      </c>
-      <c r="L26" s="26">
+      <c r="K26" s="6">
+        <v>300</v>
+      </c>
+      <c r="L26" s="12">
         <f t="shared" si="2"/>
         <v>11497</v>
       </c>
-      <c r="M26" s="20">
+      <c r="M26" s="6">
         <v>4297</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="17">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
         <v>13</v>
       </c>
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="24" t="s">
+      <c r="C27" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="25">
+      <c r="E27" s="11">
         <v>11797</v>
       </c>
-      <c r="F27" s="23">
-        <v>28</v>
-      </c>
-      <c r="G27" s="23">
-        <v>60</v>
-      </c>
-      <c r="H27" s="20">
-        <v>300</v>
-      </c>
-      <c r="I27" s="26">
-        <f t="shared" si="0"/>
-        <v>388</v>
-      </c>
-      <c r="J27" s="26">
+      <c r="F27" s="9">
+        <v>28</v>
+      </c>
+      <c r="G27" s="9">
+        <v>60</v>
+      </c>
+      <c r="H27" s="6">
+        <v>300</v>
+      </c>
+      <c r="I27" s="12">
+        <f t="shared" si="0"/>
+        <v>388</v>
+      </c>
+      <c r="J27" s="12">
         <f t="shared" si="1"/>
         <v>11409</v>
       </c>
-      <c r="K27" s="20">
-        <v>300</v>
-      </c>
-      <c r="L27" s="26">
+      <c r="K27" s="6">
+        <v>300</v>
+      </c>
+      <c r="L27" s="12">
         <f t="shared" si="2"/>
         <v>11497</v>
       </c>
-      <c r="M27" s="20">
+      <c r="M27" s="6">
         <v>4297</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="39">
-      <c r="A28" s="17">
+    <row r="28" spans="1:13" ht="39" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
         <v>14</v>
       </c>
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="24" t="s">
+      <c r="C28" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E28" s="25">
+      <c r="E28" s="11">
         <v>12757</v>
       </c>
-      <c r="F28" s="23">
-        <v>28</v>
-      </c>
-      <c r="G28" s="23">
-        <v>60</v>
-      </c>
-      <c r="H28" s="20">
-        <v>300</v>
-      </c>
-      <c r="I28" s="26">
-        <f t="shared" si="0"/>
-        <v>388</v>
-      </c>
-      <c r="J28" s="26">
+      <c r="F28" s="9">
+        <v>28</v>
+      </c>
+      <c r="G28" s="9">
+        <v>60</v>
+      </c>
+      <c r="H28" s="6">
+        <v>300</v>
+      </c>
+      <c r="I28" s="12">
+        <f t="shared" si="0"/>
+        <v>388</v>
+      </c>
+      <c r="J28" s="12">
         <f t="shared" si="1"/>
         <v>12369</v>
       </c>
-      <c r="K28" s="20">
-        <v>300</v>
-      </c>
-      <c r="L28" s="26">
+      <c r="K28" s="6">
+        <v>300</v>
+      </c>
+      <c r="L28" s="12">
         <f t="shared" si="2"/>
         <v>12457</v>
       </c>
-      <c r="M28" s="20">
+      <c r="M28" s="6">
         <v>5257</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="39">
-      <c r="A29" s="17">
+    <row r="29" spans="1:13" ht="39" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
         <v>15</v>
       </c>
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="24" t="s">
+      <c r="C29" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E29" s="25">
+      <c r="E29" s="11">
         <v>12757</v>
       </c>
-      <c r="F29" s="23">
-        <v>28</v>
-      </c>
-      <c r="G29" s="23">
-        <v>60</v>
-      </c>
-      <c r="H29" s="20">
-        <v>300</v>
-      </c>
-      <c r="I29" s="26">
-        <f t="shared" si="0"/>
-        <v>388</v>
-      </c>
-      <c r="J29" s="26">
+      <c r="F29" s="9">
+        <v>28</v>
+      </c>
+      <c r="G29" s="9">
+        <v>60</v>
+      </c>
+      <c r="H29" s="6">
+        <v>300</v>
+      </c>
+      <c r="I29" s="12">
+        <f t="shared" si="0"/>
+        <v>388</v>
+      </c>
+      <c r="J29" s="12">
         <f t="shared" si="1"/>
         <v>12369</v>
       </c>
-      <c r="K29" s="20">
-        <v>300</v>
-      </c>
-      <c r="L29" s="26">
+      <c r="K29" s="6">
+        <v>300</v>
+      </c>
+      <c r="L29" s="12">
         <f t="shared" si="2"/>
         <v>12457</v>
       </c>
-      <c r="M29" s="20">
+      <c r="M29" s="6">
         <v>5257</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="17">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
         <v>16</v>
       </c>
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" s="24" t="s">
+      <c r="C30" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="25">
+      <c r="E30" s="11">
         <v>9066</v>
       </c>
-      <c r="F30" s="23">
-        <v>28</v>
-      </c>
-      <c r="G30" s="23">
-        <v>60</v>
-      </c>
-      <c r="H30" s="20">
-        <v>300</v>
-      </c>
-      <c r="I30" s="26">
-        <f t="shared" si="0"/>
-        <v>388</v>
-      </c>
-      <c r="J30" s="26">
+      <c r="F30" s="9">
+        <v>28</v>
+      </c>
+      <c r="G30" s="9">
+        <v>60</v>
+      </c>
+      <c r="H30" s="6">
+        <v>300</v>
+      </c>
+      <c r="I30" s="12">
+        <f t="shared" si="0"/>
+        <v>388</v>
+      </c>
+      <c r="J30" s="12">
         <f t="shared" si="1"/>
         <v>8678</v>
       </c>
-      <c r="K30" s="20">
-        <v>300</v>
-      </c>
-      <c r="L30" s="26">
+      <c r="K30" s="6">
+        <v>300</v>
+      </c>
+      <c r="L30" s="12">
         <f t="shared" si="2"/>
         <v>8766</v>
       </c>
-      <c r="M30" s="20">
+      <c r="M30" s="6">
         <v>3066</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="17">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
         <v>17</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" s="24" t="s">
+      <c r="C31" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="25">
+      <c r="E31" s="11">
         <v>9066</v>
       </c>
-      <c r="F31" s="23">
-        <v>28</v>
-      </c>
-      <c r="G31" s="23">
-        <v>60</v>
-      </c>
-      <c r="H31" s="20">
-        <v>300</v>
-      </c>
-      <c r="I31" s="26">
-        <f t="shared" si="0"/>
-        <v>388</v>
-      </c>
-      <c r="J31" s="26">
+      <c r="F31" s="9">
+        <v>28</v>
+      </c>
+      <c r="G31" s="9">
+        <v>60</v>
+      </c>
+      <c r="H31" s="6">
+        <v>300</v>
+      </c>
+      <c r="I31" s="12">
+        <f t="shared" si="0"/>
+        <v>388</v>
+      </c>
+      <c r="J31" s="12">
         <f t="shared" si="1"/>
         <v>8678</v>
       </c>
-      <c r="K31" s="20">
-        <v>300</v>
-      </c>
-      <c r="L31" s="26">
+      <c r="K31" s="6">
+        <v>300</v>
+      </c>
+      <c r="L31" s="12">
         <f t="shared" si="2"/>
         <v>8766</v>
       </c>
-      <c r="M31" s="20">
+      <c r="M31" s="6">
         <v>3066</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="26.25">
-      <c r="A32" s="17">
+    <row r="32" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
         <v>18</v>
       </c>
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" s="24" t="s">
+      <c r="C32" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E32" s="25">
+      <c r="E32" s="11">
         <v>9350</v>
       </c>
-      <c r="F32" s="23">
-        <v>28</v>
-      </c>
-      <c r="G32" s="23">
-        <v>60</v>
-      </c>
-      <c r="H32" s="20">
-        <v>300</v>
-      </c>
-      <c r="I32" s="26">
-        <f t="shared" si="0"/>
-        <v>388</v>
-      </c>
-      <c r="J32" s="26">
+      <c r="F32" s="9">
+        <v>28</v>
+      </c>
+      <c r="G32" s="9">
+        <v>60</v>
+      </c>
+      <c r="H32" s="6">
+        <v>300</v>
+      </c>
+      <c r="I32" s="12">
+        <f t="shared" si="0"/>
+        <v>388</v>
+      </c>
+      <c r="J32" s="12">
         <f t="shared" si="1"/>
         <v>8962</v>
       </c>
-      <c r="K32" s="20">
-        <v>300</v>
-      </c>
-      <c r="L32" s="26">
+      <c r="K32" s="6">
+        <v>300</v>
+      </c>
+      <c r="L32" s="12">
         <f t="shared" si="2"/>
         <v>9050</v>
       </c>
-      <c r="M32" s="20">
+      <c r="M32" s="6">
         <v>3350</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="26.25">
-      <c r="A33" s="17">
-        <v>19</v>
-      </c>
-      <c r="B33" s="28" t="s">
+    <row r="33" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>19</v>
+      </c>
+      <c r="B33" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D33" s="24" t="s">
+      <c r="C33" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E33" s="25">
+      <c r="E33" s="11">
         <v>9350</v>
       </c>
-      <c r="F33" s="23">
-        <v>28</v>
-      </c>
-      <c r="G33" s="23">
-        <v>60</v>
-      </c>
-      <c r="H33" s="20">
-        <v>300</v>
-      </c>
-      <c r="I33" s="26">
-        <f t="shared" si="0"/>
-        <v>388</v>
-      </c>
-      <c r="J33" s="26">
+      <c r="F33" s="9">
+        <v>28</v>
+      </c>
+      <c r="G33" s="9">
+        <v>60</v>
+      </c>
+      <c r="H33" s="6">
+        <v>300</v>
+      </c>
+      <c r="I33" s="12">
+        <f t="shared" si="0"/>
+        <v>388</v>
+      </c>
+      <c r="J33" s="12">
         <f t="shared" si="1"/>
         <v>8962</v>
       </c>
-      <c r="K33" s="20">
-        <v>300</v>
-      </c>
-      <c r="L33" s="26">
+      <c r="K33" s="6">
+        <v>300</v>
+      </c>
+      <c r="L33" s="12">
         <f t="shared" si="2"/>
         <v>9050</v>
       </c>
-      <c r="M33" s="20">
+      <c r="M33" s="6">
         <v>3350</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
-      <c r="A34" s="17">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
         <v>20</v>
       </c>
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" s="24" t="s">
+      <c r="C34" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E34" s="25">
+      <c r="E34" s="11">
         <v>9066</v>
       </c>
-      <c r="F34" s="23">
-        <v>28</v>
-      </c>
-      <c r="G34" s="23">
-        <v>60</v>
-      </c>
-      <c r="H34" s="20">
-        <v>300</v>
-      </c>
-      <c r="I34" s="26">
-        <f t="shared" si="0"/>
-        <v>388</v>
-      </c>
-      <c r="J34" s="26">
+      <c r="F34" s="9">
+        <v>28</v>
+      </c>
+      <c r="G34" s="9">
+        <v>60</v>
+      </c>
+      <c r="H34" s="6">
+        <v>300</v>
+      </c>
+      <c r="I34" s="12">
+        <f t="shared" si="0"/>
+        <v>388</v>
+      </c>
+      <c r="J34" s="12">
         <f t="shared" si="1"/>
         <v>8678</v>
       </c>
-      <c r="K34" s="20">
-        <v>300</v>
-      </c>
-      <c r="L34" s="26">
+      <c r="K34" s="6">
+        <v>300</v>
+      </c>
+      <c r="L34" s="12">
         <f t="shared" si="2"/>
         <v>8766</v>
       </c>
-      <c r="M34" s="20">
+      <c r="M34" s="6">
         <v>3066</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
-      <c r="A35" s="17">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
         <v>21</v>
       </c>
-      <c r="B35" s="28" t="s">
+      <c r="B35" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D35" s="24" t="s">
+      <c r="C35" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="25">
+      <c r="E35" s="11">
         <v>9066</v>
       </c>
-      <c r="F35" s="23">
-        <v>28</v>
-      </c>
-      <c r="G35" s="23">
-        <v>60</v>
-      </c>
-      <c r="H35" s="20">
-        <v>300</v>
-      </c>
-      <c r="I35" s="26">
-        <f t="shared" si="0"/>
-        <v>388</v>
-      </c>
-      <c r="J35" s="26">
+      <c r="F35" s="9">
+        <v>28</v>
+      </c>
+      <c r="G35" s="9">
+        <v>60</v>
+      </c>
+      <c r="H35" s="6">
+        <v>300</v>
+      </c>
+      <c r="I35" s="12">
+        <f t="shared" si="0"/>
+        <v>388</v>
+      </c>
+      <c r="J35" s="12">
         <f t="shared" si="1"/>
         <v>8678</v>
       </c>
-      <c r="K35" s="20">
-        <v>300</v>
-      </c>
-      <c r="L35" s="26">
+      <c r="K35" s="6">
+        <v>300</v>
+      </c>
+      <c r="L35" s="12">
         <f t="shared" si="2"/>
         <v>8766</v>
       </c>
-      <c r="M35" s="20">
+      <c r="M35" s="6">
         <v>3066</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
-      <c r="A36" s="17">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
         <v>22</v>
       </c>
-      <c r="B36" s="27" t="s">
+      <c r="B36" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D36" s="24" t="s">
+      <c r="C36" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E36" s="25">
+      <c r="E36" s="11">
         <v>9552</v>
       </c>
-      <c r="F36" s="23">
-        <v>28</v>
-      </c>
-      <c r="G36" s="23">
-        <v>60</v>
-      </c>
-      <c r="H36" s="20">
-        <v>300</v>
-      </c>
-      <c r="I36" s="26">
-        <f t="shared" si="0"/>
-        <v>388</v>
-      </c>
-      <c r="J36" s="26">
+      <c r="F36" s="9">
+        <v>28</v>
+      </c>
+      <c r="G36" s="9">
+        <v>60</v>
+      </c>
+      <c r="H36" s="6">
+        <v>300</v>
+      </c>
+      <c r="I36" s="12">
+        <f t="shared" si="0"/>
+        <v>388</v>
+      </c>
+      <c r="J36" s="12">
         <f t="shared" si="1"/>
         <v>9164</v>
       </c>
-      <c r="K36" s="20">
-        <v>300</v>
-      </c>
-      <c r="L36" s="26">
+      <c r="K36" s="6">
+        <v>300</v>
+      </c>
+      <c r="L36" s="12">
         <f t="shared" si="2"/>
         <v>9252</v>
       </c>
-      <c r="M36" s="20">
+      <c r="M36" s="6">
         <v>3552</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
-      <c r="A37" s="17">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
         <v>23</v>
       </c>
-      <c r="B37" s="28" t="s">
+      <c r="B37" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" s="24" t="s">
+      <c r="C37" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E37" s="25">
+      <c r="E37" s="11">
         <v>9552</v>
       </c>
-      <c r="F37" s="23">
-        <v>28</v>
-      </c>
-      <c r="G37" s="23">
-        <v>60</v>
-      </c>
-      <c r="H37" s="20">
-        <v>300</v>
-      </c>
-      <c r="I37" s="26">
-        <f t="shared" si="0"/>
-        <v>388</v>
-      </c>
-      <c r="J37" s="26">
+      <c r="F37" s="9">
+        <v>28</v>
+      </c>
+      <c r="G37" s="9">
+        <v>60</v>
+      </c>
+      <c r="H37" s="6">
+        <v>300</v>
+      </c>
+      <c r="I37" s="12">
+        <f t="shared" si="0"/>
+        <v>388</v>
+      </c>
+      <c r="J37" s="12">
         <f t="shared" si="1"/>
         <v>9164</v>
       </c>
-      <c r="K37" s="20">
-        <v>300</v>
-      </c>
-      <c r="L37" s="26">
+      <c r="K37" s="6">
+        <v>300</v>
+      </c>
+      <c r="L37" s="12">
         <f t="shared" si="2"/>
         <v>9252</v>
       </c>
-      <c r="M37" s="20">
+      <c r="M37" s="6">
         <v>3552</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
-      <c r="A38" s="17">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
         <v>24</v>
       </c>
-      <c r="B38" s="22" t="s">
+      <c r="B38" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D38" s="23" t="s">
+      <c r="C38" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E38" s="25">
+      <c r="E38" s="11">
         <v>10947</v>
       </c>
-      <c r="F38" s="23">
-        <v>28</v>
-      </c>
-      <c r="G38" s="23">
-        <v>60</v>
-      </c>
-      <c r="H38" s="20">
-        <v>300</v>
-      </c>
-      <c r="I38" s="26">
-        <f t="shared" si="0"/>
-        <v>388</v>
-      </c>
-      <c r="J38" s="26">
+      <c r="F38" s="9">
+        <v>28</v>
+      </c>
+      <c r="G38" s="9">
+        <v>60</v>
+      </c>
+      <c r="H38" s="6">
+        <v>300</v>
+      </c>
+      <c r="I38" s="12">
+        <f t="shared" si="0"/>
+        <v>388</v>
+      </c>
+      <c r="J38" s="12">
         <f t="shared" si="1"/>
         <v>10559</v>
       </c>
-      <c r="K38" s="20">
-        <v>300</v>
-      </c>
-      <c r="L38" s="26">
+      <c r="K38" s="6">
+        <v>300</v>
+      </c>
+      <c r="L38" s="12">
         <f t="shared" si="2"/>
         <v>10647</v>
       </c>
-      <c r="M38" s="20">
+      <c r="M38" s="6">
         <v>4447</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
-      <c r="A39" s="17">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
         <v>25</v>
       </c>
-      <c r="B39" s="29" t="s">
+      <c r="B39" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C39" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D39" s="23" t="s">
+      <c r="C39" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E39" s="25">
+      <c r="E39" s="11">
         <v>10947</v>
       </c>
-      <c r="F39" s="23">
-        <v>28</v>
-      </c>
-      <c r="G39" s="23">
-        <v>60</v>
-      </c>
-      <c r="H39" s="20">
-        <v>300</v>
-      </c>
-      <c r="I39" s="26">
-        <f t="shared" si="0"/>
-        <v>388</v>
-      </c>
-      <c r="J39" s="26">
+      <c r="F39" s="9">
+        <v>28</v>
+      </c>
+      <c r="G39" s="9">
+        <v>60</v>
+      </c>
+      <c r="H39" s="6">
+        <v>300</v>
+      </c>
+      <c r="I39" s="12">
+        <f t="shared" si="0"/>
+        <v>388</v>
+      </c>
+      <c r="J39" s="12">
         <f t="shared" si="1"/>
         <v>10559</v>
       </c>
-      <c r="K39" s="20">
-        <v>300</v>
-      </c>
-      <c r="L39" s="26">
+      <c r="K39" s="6">
+        <v>300</v>
+      </c>
+      <c r="L39" s="12">
         <f t="shared" si="2"/>
         <v>10647</v>
       </c>
-      <c r="M39" s="20">
+      <c r="M39" s="6">
         <v>4447</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
-      <c r="A40" s="17">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
         <v>26</v>
       </c>
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D40" s="24" t="s">
+      <c r="C40" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E40" s="25">
+      <c r="E40" s="11">
         <v>10642</v>
       </c>
-      <c r="F40" s="23">
-        <v>28</v>
-      </c>
-      <c r="G40" s="23">
+      <c r="F40" s="9">
+        <v>28</v>
+      </c>
+      <c r="G40" s="9">
         <v>76</v>
       </c>
-      <c r="H40" s="20">
-        <v>300</v>
-      </c>
-      <c r="I40" s="26">
+      <c r="H40" s="6">
+        <v>300</v>
+      </c>
+      <c r="I40" s="12">
         <f t="shared" si="0"/>
         <v>404</v>
       </c>
-      <c r="J40" s="26">
+      <c r="J40" s="12">
         <f t="shared" si="1"/>
         <v>10238</v>
       </c>
-      <c r="K40" s="20">
-        <v>300</v>
-      </c>
-      <c r="L40" s="26">
+      <c r="K40" s="6">
+        <v>300</v>
+      </c>
+      <c r="L40" s="12">
         <f t="shared" si="2"/>
         <v>10342</v>
       </c>
-      <c r="M40" s="20">
+      <c r="M40" s="6">
         <v>3642</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
-      <c r="A41" s="17">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
         <v>27</v>
       </c>
-      <c r="B41" s="22" t="s">
+      <c r="B41" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D41" s="24" t="s">
+      <c r="C41" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E41" s="25">
+      <c r="E41" s="11">
         <v>10642</v>
       </c>
-      <c r="F41" s="23">
-        <v>28</v>
-      </c>
-      <c r="G41" s="23">
+      <c r="F41" s="9">
+        <v>28</v>
+      </c>
+      <c r="G41" s="9">
         <v>76</v>
       </c>
-      <c r="H41" s="20">
-        <v>300</v>
-      </c>
-      <c r="I41" s="26">
+      <c r="H41" s="6">
+        <v>300</v>
+      </c>
+      <c r="I41" s="12">
         <f t="shared" si="0"/>
         <v>404</v>
       </c>
-      <c r="J41" s="26">
+      <c r="J41" s="12">
         <f t="shared" si="1"/>
         <v>10238</v>
       </c>
-      <c r="K41" s="20">
-        <v>300</v>
-      </c>
-      <c r="L41" s="26">
+      <c r="K41" s="6">
+        <v>300</v>
+      </c>
+      <c r="L41" s="12">
         <f t="shared" si="2"/>
         <v>10342</v>
       </c>
-      <c r="M41" s="20">
+      <c r="M41" s="6">
         <v>3642</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="26.25">
-      <c r="A42" s="17">
-        <v>28</v>
-      </c>
-      <c r="B42" s="29" t="s">
+    <row r="42" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>28</v>
+      </c>
+      <c r="B42" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D42" s="24" t="s">
+      <c r="C42" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E42" s="25">
+      <c r="E42" s="11">
         <v>11437</v>
       </c>
-      <c r="F42" s="23">
-        <v>28</v>
-      </c>
-      <c r="G42" s="23">
+      <c r="F42" s="9">
+        <v>28</v>
+      </c>
+      <c r="G42" s="9">
         <v>76</v>
       </c>
-      <c r="H42" s="20">
-        <v>300</v>
-      </c>
-      <c r="I42" s="26">
+      <c r="H42" s="6">
+        <v>300</v>
+      </c>
+      <c r="I42" s="12">
         <f t="shared" si="0"/>
         <v>404</v>
       </c>
-      <c r="J42" s="26">
+      <c r="J42" s="12">
         <f t="shared" si="1"/>
         <v>11033</v>
       </c>
-      <c r="K42" s="20">
-        <v>300</v>
-      </c>
-      <c r="L42" s="26">
+      <c r="K42" s="6">
+        <v>300</v>
+      </c>
+      <c r="L42" s="12">
         <f t="shared" si="2"/>
         <v>11137</v>
       </c>
-      <c r="M42" s="20">
+      <c r="M42" s="6">
         <v>4437</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="26.25">
-      <c r="A43" s="17">
+    <row r="43" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
         <v>29</v>
       </c>
-      <c r="B43" s="29" t="s">
+      <c r="B43" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D43" s="24" t="s">
+      <c r="C43" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E43" s="25">
+      <c r="E43" s="11">
         <v>11437</v>
       </c>
-      <c r="F43" s="23">
-        <v>28</v>
-      </c>
-      <c r="G43" s="23">
+      <c r="F43" s="9">
+        <v>28</v>
+      </c>
+      <c r="G43" s="9">
         <v>76</v>
       </c>
-      <c r="H43" s="20">
-        <v>300</v>
-      </c>
-      <c r="I43" s="26">
+      <c r="H43" s="6">
+        <v>300</v>
+      </c>
+      <c r="I43" s="12">
         <f t="shared" si="0"/>
         <v>404</v>
       </c>
-      <c r="J43" s="26">
+      <c r="J43" s="12">
         <f t="shared" si="1"/>
         <v>11033</v>
       </c>
-      <c r="K43" s="20">
-        <v>300</v>
-      </c>
-      <c r="L43" s="26">
+      <c r="K43" s="6">
+        <v>300</v>
+      </c>
+      <c r="L43" s="12">
         <f t="shared" si="2"/>
         <v>11137</v>
       </c>
-      <c r="M43" s="20">
+      <c r="M43" s="6">
         <v>4437</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
-      <c r="A44" s="17">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
         <v>30</v>
       </c>
-      <c r="B44" s="27" t="s">
+      <c r="B44" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D44" s="24" t="s">
+      <c r="C44" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E44" s="25">
+      <c r="E44" s="11">
         <v>15198</v>
       </c>
-      <c r="F44" s="23">
-        <v>28</v>
-      </c>
-      <c r="G44" s="23">
-        <v>60</v>
-      </c>
-      <c r="H44" s="20">
-        <v>300</v>
-      </c>
-      <c r="I44" s="26">
-        <f t="shared" si="0"/>
-        <v>388</v>
-      </c>
-      <c r="J44" s="26">
+      <c r="F44" s="9">
+        <v>28</v>
+      </c>
+      <c r="G44" s="9">
+        <v>60</v>
+      </c>
+      <c r="H44" s="6">
+        <v>300</v>
+      </c>
+      <c r="I44" s="12">
+        <f t="shared" si="0"/>
+        <v>388</v>
+      </c>
+      <c r="J44" s="12">
         <f t="shared" si="1"/>
         <v>14810</v>
       </c>
-      <c r="K44" s="20">
-        <v>300</v>
-      </c>
-      <c r="L44" s="26">
+      <c r="K44" s="6">
+        <v>300</v>
+      </c>
+      <c r="L44" s="12">
         <f t="shared" si="2"/>
         <v>14898</v>
       </c>
-      <c r="M44" s="20">
+      <c r="M44" s="6">
         <v>5998</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
-      <c r="A45" s="17">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
         <v>31</v>
       </c>
-      <c r="B45" s="27" t="s">
+      <c r="B45" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C45" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D45" s="24" t="s">
+      <c r="C45" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E45" s="25">
+      <c r="E45" s="11">
         <v>15198</v>
       </c>
-      <c r="F45" s="23">
-        <v>28</v>
-      </c>
-      <c r="G45" s="23">
-        <v>60</v>
-      </c>
-      <c r="H45" s="20">
-        <v>300</v>
-      </c>
-      <c r="I45" s="26">
-        <f t="shared" si="0"/>
-        <v>388</v>
-      </c>
-      <c r="J45" s="26">
+      <c r="F45" s="9">
+        <v>28</v>
+      </c>
+      <c r="G45" s="9">
+        <v>60</v>
+      </c>
+      <c r="H45" s="6">
+        <v>300</v>
+      </c>
+      <c r="I45" s="12">
+        <f t="shared" si="0"/>
+        <v>388</v>
+      </c>
+      <c r="J45" s="12">
         <f t="shared" si="1"/>
         <v>14810</v>
       </c>
-      <c r="K45" s="20">
-        <v>300</v>
-      </c>
-      <c r="L45" s="26">
+      <c r="K45" s="6">
+        <v>300</v>
+      </c>
+      <c r="L45" s="12">
         <f t="shared" si="2"/>
         <v>14898</v>
       </c>
-      <c r="M45" s="20">
+      <c r="M45" s="6">
         <v>5998</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
-      <c r="A46" s="17">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
         <v>32</v>
       </c>
-      <c r="B46" s="27" t="s">
+      <c r="B46" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C46" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D46" s="24" t="s">
+      <c r="C46" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E46" s="25">
+      <c r="E46" s="11">
         <v>18021</v>
       </c>
-      <c r="F46" s="23">
-        <v>28</v>
-      </c>
-      <c r="G46" s="23">
-        <v>60</v>
-      </c>
-      <c r="H46" s="20">
-        <v>300</v>
-      </c>
-      <c r="I46" s="26">
-        <f t="shared" si="0"/>
-        <v>388</v>
-      </c>
-      <c r="J46" s="26">
+      <c r="F46" s="9">
+        <v>28</v>
+      </c>
+      <c r="G46" s="9">
+        <v>60</v>
+      </c>
+      <c r="H46" s="6">
+        <v>300</v>
+      </c>
+      <c r="I46" s="12">
+        <f t="shared" si="0"/>
+        <v>388</v>
+      </c>
+      <c r="J46" s="12">
         <f t="shared" si="1"/>
         <v>17633</v>
       </c>
-      <c r="K46" s="20">
-        <v>300</v>
-      </c>
-      <c r="L46" s="26">
+      <c r="K46" s="6">
+        <v>300</v>
+      </c>
+      <c r="L46" s="12">
         <f t="shared" si="2"/>
         <v>17721</v>
       </c>
-      <c r="M46" s="20">
+      <c r="M46" s="6">
         <v>8821</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
-      <c r="A47" s="17">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
         <v>33</v>
       </c>
-      <c r="B47" s="27" t="s">
+      <c r="B47" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C47" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D47" s="24" t="s">
+      <c r="C47" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E47" s="25">
+      <c r="E47" s="11">
         <v>18021</v>
       </c>
-      <c r="F47" s="23">
-        <v>28</v>
-      </c>
-      <c r="G47" s="23">
-        <v>60</v>
-      </c>
-      <c r="H47" s="20">
-        <v>300</v>
-      </c>
-      <c r="I47" s="26">
-        <f t="shared" si="0"/>
-        <v>388</v>
-      </c>
-      <c r="J47" s="26">
+      <c r="F47" s="9">
+        <v>28</v>
+      </c>
+      <c r="G47" s="9">
+        <v>60</v>
+      </c>
+      <c r="H47" s="6">
+        <v>300</v>
+      </c>
+      <c r="I47" s="12">
+        <f t="shared" si="0"/>
+        <v>388</v>
+      </c>
+      <c r="J47" s="12">
         <f t="shared" si="1"/>
         <v>17633</v>
       </c>
-      <c r="K47" s="20">
-        <v>300</v>
-      </c>
-      <c r="L47" s="26">
+      <c r="K47" s="6">
+        <v>300</v>
+      </c>
+      <c r="L47" s="12">
         <f t="shared" si="2"/>
         <v>17721</v>
       </c>
-      <c r="M47" s="20">
+      <c r="M47" s="6">
         <v>8821</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
-      <c r="A48" s="17">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
         <v>34</v>
       </c>
-      <c r="B48" s="27" t="s">
+      <c r="B48" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C48" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D48" s="24" t="s">
+      <c r="C48" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E48" s="25">
+      <c r="E48" s="11">
         <v>9541</v>
       </c>
-      <c r="F48" s="23">
-        <v>28</v>
-      </c>
-      <c r="G48" s="23">
-        <v>60</v>
-      </c>
-      <c r="H48" s="20">
-        <v>300</v>
-      </c>
-      <c r="I48" s="26">
-        <f t="shared" si="0"/>
-        <v>388</v>
-      </c>
-      <c r="J48" s="26">
+      <c r="F48" s="9">
+        <v>28</v>
+      </c>
+      <c r="G48" s="9">
+        <v>60</v>
+      </c>
+      <c r="H48" s="6">
+        <v>300</v>
+      </c>
+      <c r="I48" s="12">
+        <f t="shared" si="0"/>
+        <v>388</v>
+      </c>
+      <c r="J48" s="12">
         <f t="shared" si="1"/>
         <v>9153</v>
       </c>
-      <c r="K48" s="20">
-        <v>300</v>
-      </c>
-      <c r="L48" s="26">
+      <c r="K48" s="6">
+        <v>300</v>
+      </c>
+      <c r="L48" s="12">
         <f t="shared" si="2"/>
         <v>9241</v>
       </c>
-      <c r="M48" s="20">
+      <c r="M48" s="6">
         <v>3541</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
-      <c r="A49" s="17">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
         <v>35</v>
       </c>
-      <c r="B49" s="27" t="s">
+      <c r="B49" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C49" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D49" s="24" t="s">
+      <c r="C49" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E49" s="25">
+      <c r="E49" s="11">
         <v>9541</v>
       </c>
-      <c r="F49" s="23">
-        <v>28</v>
-      </c>
-      <c r="G49" s="23">
-        <v>60</v>
-      </c>
-      <c r="H49" s="20">
-        <v>300</v>
-      </c>
-      <c r="I49" s="26">
-        <f t="shared" si="0"/>
-        <v>388</v>
-      </c>
-      <c r="J49" s="26">
+      <c r="F49" s="9">
+        <v>28</v>
+      </c>
+      <c r="G49" s="9">
+        <v>60</v>
+      </c>
+      <c r="H49" s="6">
+        <v>300</v>
+      </c>
+      <c r="I49" s="12">
+        <f t="shared" si="0"/>
+        <v>388</v>
+      </c>
+      <c r="J49" s="12">
         <f t="shared" si="1"/>
         <v>9153</v>
       </c>
-      <c r="K49" s="20">
-        <v>300</v>
-      </c>
-      <c r="L49" s="26">
+      <c r="K49" s="6">
+        <v>300</v>
+      </c>
+      <c r="L49" s="12">
         <f t="shared" si="2"/>
         <v>9241</v>
       </c>
-      <c r="M49" s="20">
+      <c r="M49" s="6">
         <v>3541</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
-      <c r="A50" s="17">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
         <v>36</v>
       </c>
-      <c r="B50" s="27" t="s">
+      <c r="B50" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C50" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D50" s="24" t="s">
+      <c r="C50" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E50" s="25">
+      <c r="E50" s="11">
         <v>11633</v>
       </c>
-      <c r="F50" s="23">
-        <v>28</v>
-      </c>
-      <c r="G50" s="23">
-        <v>60</v>
-      </c>
-      <c r="H50" s="20">
-        <v>300</v>
-      </c>
-      <c r="I50" s="26">
-        <f t="shared" si="0"/>
-        <v>388</v>
-      </c>
-      <c r="J50" s="26">
+      <c r="F50" s="9">
+        <v>28</v>
+      </c>
+      <c r="G50" s="9">
+        <v>60</v>
+      </c>
+      <c r="H50" s="6">
+        <v>300</v>
+      </c>
+      <c r="I50" s="12">
+        <f t="shared" si="0"/>
+        <v>388</v>
+      </c>
+      <c r="J50" s="12">
         <f t="shared" si="1"/>
         <v>11245</v>
       </c>
-      <c r="K50" s="20">
-        <v>300</v>
-      </c>
-      <c r="L50" s="26">
+      <c r="K50" s="6">
+        <v>300</v>
+      </c>
+      <c r="L50" s="12">
         <f t="shared" si="2"/>
         <v>11333</v>
       </c>
-      <c r="M50" s="20">
+      <c r="M50" s="6">
         <v>5633</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
-      <c r="A51" s="17">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
         <v>37</v>
       </c>
-      <c r="B51" s="27" t="s">
+      <c r="B51" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C51" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D51" s="24" t="s">
+      <c r="C51" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E51" s="25">
+      <c r="E51" s="11">
         <v>11633</v>
       </c>
-      <c r="F51" s="23">
-        <v>28</v>
-      </c>
-      <c r="G51" s="23">
-        <v>60</v>
-      </c>
-      <c r="H51" s="20">
-        <v>300</v>
-      </c>
-      <c r="I51" s="26">
-        <f t="shared" si="0"/>
-        <v>388</v>
-      </c>
-      <c r="J51" s="26">
+      <c r="F51" s="9">
+        <v>28</v>
+      </c>
+      <c r="G51" s="9">
+        <v>60</v>
+      </c>
+      <c r="H51" s="6">
+        <v>300</v>
+      </c>
+      <c r="I51" s="12">
+        <f t="shared" si="0"/>
+        <v>388</v>
+      </c>
+      <c r="J51" s="12">
         <f t="shared" si="1"/>
         <v>11245</v>
       </c>
-      <c r="K51" s="20">
-        <v>300</v>
-      </c>
-      <c r="L51" s="26">
+      <c r="K51" s="6">
+        <v>300</v>
+      </c>
+      <c r="L51" s="12">
         <f t="shared" si="2"/>
         <v>11333</v>
       </c>
-      <c r="M51" s="20">
+      <c r="M51" s="6">
         <v>5633</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
-      <c r="A52" s="17">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
         <v>38</v>
       </c>
-      <c r="B52" s="22" t="s">
+      <c r="B52" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C52" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D52" s="23" t="s">
+      <c r="C52" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E52" s="25">
+      <c r="E52" s="11">
         <v>9235</v>
       </c>
-      <c r="F52" s="23">
-        <v>28</v>
-      </c>
-      <c r="G52" s="23">
-        <v>60</v>
-      </c>
-      <c r="H52" s="20">
-        <v>300</v>
-      </c>
-      <c r="I52" s="26">
-        <f t="shared" si="0"/>
-        <v>388</v>
-      </c>
-      <c r="J52" s="26">
+      <c r="F52" s="9">
+        <v>28</v>
+      </c>
+      <c r="G52" s="9">
+        <v>60</v>
+      </c>
+      <c r="H52" s="6">
+        <v>300</v>
+      </c>
+      <c r="I52" s="12">
+        <f t="shared" si="0"/>
+        <v>388</v>
+      </c>
+      <c r="J52" s="12">
         <f t="shared" si="1"/>
         <v>8847</v>
       </c>
-      <c r="K52" s="20">
-        <v>300</v>
-      </c>
-      <c r="L52" s="26">
+      <c r="K52" s="6">
+        <v>300</v>
+      </c>
+      <c r="L52" s="12">
         <f t="shared" si="2"/>
         <v>8935</v>
       </c>
-      <c r="M52" s="20">
+      <c r="M52" s="6">
         <v>4485</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
-      <c r="A53" s="17">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
         <v>39</v>
       </c>
-      <c r="B53" s="22" t="s">
+      <c r="B53" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C53" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D53" s="23" t="s">
+      <c r="C53" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E53" s="25">
+      <c r="E53" s="11">
         <v>9235</v>
       </c>
-      <c r="F53" s="23">
-        <v>28</v>
-      </c>
-      <c r="G53" s="23">
-        <v>60</v>
-      </c>
-      <c r="H53" s="20">
-        <v>300</v>
-      </c>
-      <c r="I53" s="26">
-        <f t="shared" si="0"/>
-        <v>388</v>
-      </c>
-      <c r="J53" s="26">
+      <c r="F53" s="9">
+        <v>28</v>
+      </c>
+      <c r="G53" s="9">
+        <v>60</v>
+      </c>
+      <c r="H53" s="6">
+        <v>300</v>
+      </c>
+      <c r="I53" s="12">
+        <f t="shared" si="0"/>
+        <v>388</v>
+      </c>
+      <c r="J53" s="12">
         <f t="shared" si="1"/>
         <v>8847</v>
       </c>
-      <c r="K53" s="20">
-        <v>300</v>
-      </c>
-      <c r="L53" s="26">
+      <c r="K53" s="6">
+        <v>300</v>
+      </c>
+      <c r="L53" s="12">
         <f t="shared" si="2"/>
         <v>8935</v>
       </c>
-      <c r="M53" s="20">
+      <c r="M53" s="6">
         <v>4485</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
-      <c r="A54" s="17">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
         <v>40</v>
       </c>
-      <c r="B54" s="30" t="s">
+      <c r="B54" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C54" s="17" t="s">
+      <c r="C54" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D54" s="31" t="s">
+      <c r="D54" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E54" s="25">
+      <c r="E54" s="11">
         <v>294148</v>
       </c>
-      <c r="F54" s="23">
-        <v>28</v>
-      </c>
-      <c r="G54" s="23">
-        <v>60</v>
-      </c>
-      <c r="H54" s="20">
-        <v>300</v>
-      </c>
-      <c r="I54" s="26">
-        <f t="shared" si="0"/>
-        <v>388</v>
-      </c>
-      <c r="J54" s="26">
+      <c r="F54" s="9">
+        <v>28</v>
+      </c>
+      <c r="G54" s="9">
+        <v>60</v>
+      </c>
+      <c r="H54" s="6">
+        <v>300</v>
+      </c>
+      <c r="I54" s="12">
+        <f t="shared" si="0"/>
+        <v>388</v>
+      </c>
+      <c r="J54" s="12">
         <f t="shared" si="1"/>
         <v>293760</v>
       </c>
-      <c r="K54" s="20">
-        <v>300</v>
-      </c>
-      <c r="L54" s="26">
+      <c r="K54" s="6">
+        <v>300</v>
+      </c>
+      <c r="L54" s="12">
         <f t="shared" si="2"/>
         <v>293848</v>
       </c>
-      <c r="M54" s="20">
+      <c r="M54" s="6">
         <v>147070</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
-      <c r="A55" s="32"/>
-      <c r="B55" s="33"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="35"/>
-      <c r="E55" s="36"/>
-      <c r="F55" s="36"/>
-      <c r="G55" s="36"/>
-      <c r="H55" s="36"/>
-      <c r="I55" s="36"/>
-      <c r="J55" s="36"/>
-      <c r="K55" s="36"/>
-      <c r="L55" s="36"/>
-      <c r="M55" s="36"/>
-    </row>
-    <row r="56" spans="1:13">
-      <c r="A56" s="32"/>
-      <c r="B56" s="33"/>
-      <c r="C56" s="34"/>
-      <c r="D56" s="35"/>
-      <c r="E56" s="36"/>
-      <c r="F56" s="36"/>
-      <c r="G56" s="36"/>
-      <c r="H56" s="36"/>
-      <c r="I56" s="36"/>
-      <c r="J56" s="36"/>
-      <c r="K56" s="36"/>
-      <c r="L56" s="36"/>
-      <c r="M56" s="36"/>
-    </row>
-    <row r="57" spans="1:13">
-      <c r="A57" s="37" t="s">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="18"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="22"/>
+      <c r="J55" s="22"/>
+      <c r="K55" s="22"/>
+      <c r="L55" s="22"/>
+      <c r="M55" s="22"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="18"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="22"/>
+      <c r="L56" s="22"/>
+      <c r="M56" s="22"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="B57" s="38" t="s">
+      <c r="B57" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="C57" s="36"/>
-      <c r="D57" s="36"/>
-      <c r="E57" s="36"/>
-      <c r="F57" s="36"/>
-      <c r="G57" s="36"/>
-      <c r="H57" s="36"/>
-      <c r="I57" s="36"/>
-      <c r="J57" s="36"/>
-      <c r="K57" s="36"/>
-      <c r="L57" s="36"/>
-      <c r="M57" s="36"/>
-    </row>
-    <row r="58" spans="1:13">
-      <c r="A58" s="39">
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="22"/>
+      <c r="I57" s="22"/>
+      <c r="J57" s="22"/>
+      <c r="K57" s="22"/>
+      <c r="L57" s="22"/>
+      <c r="M57" s="22"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="25">
         <v>2</v>
       </c>
-      <c r="B58" s="40" t="s">
+      <c r="B58" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="C58" s="36"/>
-      <c r="D58" s="36"/>
-      <c r="E58" s="36"/>
-      <c r="F58" s="36"/>
-      <c r="G58" s="36"/>
-      <c r="H58" s="36"/>
-      <c r="I58" s="36"/>
-      <c r="J58" s="36"/>
-      <c r="K58" s="36"/>
-      <c r="L58" s="36"/>
-      <c r="M58" s="36"/>
-    </row>
-    <row r="59" spans="1:13">
-      <c r="A59" s="39">
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="22"/>
+      <c r="I58" s="22"/>
+      <c r="J58" s="22"/>
+      <c r="K58" s="22"/>
+      <c r="L58" s="22"/>
+      <c r="M58" s="22"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" s="25">
         <v>3</v>
       </c>
-      <c r="B59" s="40" t="s">
+      <c r="B59" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="C59" s="36"/>
-      <c r="D59" s="36"/>
-      <c r="E59" s="36"/>
-      <c r="F59" s="36"/>
-      <c r="G59" s="36"/>
-      <c r="H59" s="36"/>
-      <c r="I59" s="36"/>
-      <c r="J59" s="36"/>
-      <c r="K59" s="36"/>
-      <c r="L59" s="36"/>
-      <c r="M59" s="36"/>
-    </row>
-    <row r="60" spans="1:13">
-      <c r="A60" s="37">
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="22"/>
+      <c r="I59" s="22"/>
+      <c r="J59" s="22"/>
+      <c r="K59" s="22"/>
+      <c r="L59" s="22"/>
+      <c r="M59" s="22"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" s="23">
         <v>4</v>
       </c>
-      <c r="B60" s="40" t="s">
+      <c r="B60" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="C60" s="36"/>
-      <c r="D60" s="36"/>
-      <c r="E60" s="36"/>
-      <c r="F60" s="36"/>
-      <c r="G60" s="36"/>
-      <c r="H60" s="36"/>
-      <c r="I60" s="36"/>
-      <c r="J60" s="36"/>
-      <c r="K60" s="36"/>
-      <c r="L60" s="36"/>
-      <c r="M60" s="36"/>
-    </row>
-    <row r="61" spans="1:13">
-      <c r="A61" s="37">
+      <c r="C60" s="22"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="22"/>
+      <c r="I60" s="22"/>
+      <c r="J60" s="22"/>
+      <c r="K60" s="22"/>
+      <c r="L60" s="22"/>
+      <c r="M60" s="22"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" s="23">
         <v>5</v>
       </c>
-      <c r="B61" s="40" t="s">
+      <c r="B61" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="C61" s="36"/>
-      <c r="D61" s="36"/>
-      <c r="E61" s="36"/>
-      <c r="F61" s="36"/>
-      <c r="G61" s="36"/>
-      <c r="H61" s="36"/>
-      <c r="I61" s="36"/>
-      <c r="J61" s="36"/>
-      <c r="K61" s="36"/>
-      <c r="L61" s="36"/>
-      <c r="M61" s="36"/>
-    </row>
-    <row r="62" spans="1:13">
-      <c r="A62" s="39">
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="22"/>
+      <c r="I61" s="22"/>
+      <c r="J61" s="22"/>
+      <c r="K61" s="22"/>
+      <c r="L61" s="22"/>
+      <c r="M61" s="22"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" s="25">
         <v>6</v>
       </c>
-      <c r="B62" s="40" t="s">
+      <c r="B62" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="C62" s="36"/>
-      <c r="D62" s="36"/>
-      <c r="E62" s="36"/>
-      <c r="F62" s="36"/>
-      <c r="G62" s="36"/>
-      <c r="H62" s="36"/>
-      <c r="I62" s="36"/>
-      <c r="J62" s="36"/>
-      <c r="K62" s="36"/>
-      <c r="L62" s="36"/>
-      <c r="M62" s="36"/>
-    </row>
-    <row r="63" spans="1:13">
-      <c r="A63" s="39">
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="22"/>
+      <c r="I62" s="22"/>
+      <c r="J62" s="22"/>
+      <c r="K62" s="22"/>
+      <c r="L62" s="22"/>
+      <c r="M62" s="22"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" s="25">
         <v>7</v>
       </c>
-      <c r="B63" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="C63" s="36"/>
-      <c r="D63" s="36"/>
-      <c r="E63" s="36"/>
-      <c r="F63" s="36"/>
-      <c r="G63" s="36"/>
-      <c r="H63" s="36"/>
-      <c r="I63" s="36"/>
-      <c r="J63" s="36"/>
-      <c r="K63" s="36"/>
-      <c r="L63" s="36"/>
-      <c r="M63" s="36"/>
-    </row>
-    <row r="64" spans="1:13">
-      <c r="A64" s="39">
+      <c r="B63" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="22"/>
+      <c r="G63" s="22"/>
+      <c r="H63" s="22"/>
+      <c r="I63" s="22"/>
+      <c r="J63" s="22"/>
+      <c r="K63" s="22"/>
+      <c r="L63" s="22"/>
+      <c r="M63" s="22"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" s="25">
         <v>8</v>
       </c>
-      <c r="B64" s="40" t="s">
+      <c r="B64" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="C64" s="36"/>
-      <c r="D64" s="36"/>
-      <c r="E64" s="36"/>
-      <c r="F64" s="36"/>
-      <c r="G64" s="36"/>
-      <c r="H64" s="36"/>
-      <c r="I64" s="36"/>
-      <c r="J64" s="36"/>
-      <c r="K64" s="36"/>
-      <c r="L64" s="36"/>
-      <c r="M64" s="36"/>
-    </row>
-    <row r="65" spans="1:13">
-      <c r="A65" s="41"/>
-      <c r="B65" s="42" t="s">
+      <c r="C64" s="22"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="22"/>
+      <c r="I64" s="22"/>
+      <c r="J64" s="22"/>
+      <c r="K64" s="22"/>
+      <c r="L64" s="22"/>
+      <c r="M64" s="22"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65" s="27"/>
+      <c r="B65" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="C65" s="36"/>
-      <c r="D65" s="36"/>
-      <c r="E65" s="36"/>
-      <c r="F65" s="36"/>
-      <c r="G65" s="36"/>
-      <c r="H65" s="36"/>
-      <c r="I65" s="36"/>
-      <c r="J65" s="36"/>
-      <c r="K65" s="36"/>
-      <c r="L65" s="36"/>
-      <c r="M65" s="36"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="22"/>
+      <c r="H65" s="22"/>
+      <c r="I65" s="22"/>
+      <c r="J65" s="22"/>
+      <c r="K65" s="22"/>
+      <c r="L65" s="22"/>
+      <c r="M65" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="D9:D13"/>
+    <mergeCell ref="E9:E13"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="M9:M13"/>
     <mergeCell ref="F10:F13"/>
@@ -2955,11 +2967,6 @@
     <mergeCell ref="J10:J13"/>
     <mergeCell ref="K10:K13"/>
     <mergeCell ref="L10:L13"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="D9:D13"/>
-    <mergeCell ref="E9:E13"/>
     <mergeCell ref="F9:J9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2967,24 +2974,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
